--- a/data/pca/factorExposure/factorExposure_2013-03-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-03-22.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-3.17694175031334e-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.002003762931140062</v>
+      </c>
+      <c r="C2">
+        <v>0.03337456578826523</v>
+      </c>
+      <c r="D2">
+        <v>0.003303295599673607</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001555275662948263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006003884796844629</v>
+      </c>
+      <c r="C4">
+        <v>0.0852918350486791</v>
+      </c>
+      <c r="D4">
+        <v>-0.07964539173644385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0003699067109228271</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01357517603143249</v>
+      </c>
+      <c r="C6">
+        <v>0.1129699107096055</v>
+      </c>
+      <c r="D6">
+        <v>-0.03201451066067023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001809568036398068</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004727489036847172</v>
+      </c>
+      <c r="C7">
+        <v>0.05639565570250125</v>
+      </c>
+      <c r="D7">
+        <v>-0.03120353489341511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0002556088841831512</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005668673327938599</v>
+      </c>
+      <c r="C8">
+        <v>0.03860569461559557</v>
+      </c>
+      <c r="D8">
+        <v>-0.04002073460997368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003587122221966686</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004094689403268893</v>
+      </c>
+      <c r="C9">
+        <v>0.07127950613371113</v>
+      </c>
+      <c r="D9">
+        <v>-0.07156229945326584</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.004600628180169267</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005189961486867457</v>
+      </c>
+      <c r="C10">
+        <v>0.05891792250360812</v>
+      </c>
+      <c r="D10">
+        <v>0.2024067461485568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.002461833818982657</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005321850281518655</v>
+      </c>
+      <c r="C11">
+        <v>0.08114765132887249</v>
+      </c>
+      <c r="D11">
+        <v>-0.05821383832451062</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0003581444118508629</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003928766652889036</v>
+      </c>
+      <c r="C12">
+        <v>0.06487612233233735</v>
+      </c>
+      <c r="D12">
+        <v>-0.04486795522271993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.003666570872476202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008513797903587901</v>
+      </c>
+      <c r="C13">
+        <v>0.06686051219565255</v>
+      </c>
+      <c r="D13">
+        <v>-0.06696719173291708</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.0009731993507225195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001348339693511266</v>
+      </c>
+      <c r="C14">
+        <v>0.04592360086288706</v>
+      </c>
+      <c r="D14">
+        <v>-0.007557461175119272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0009789903578296449</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005820668733559667</v>
+      </c>
+      <c r="C15">
+        <v>0.04186599899967943</v>
+      </c>
+      <c r="D15">
+        <v>-0.03106040499132901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.001150850111577706</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004926767571260735</v>
+      </c>
+      <c r="C16">
+        <v>0.0667233639153172</v>
+      </c>
+      <c r="D16">
+        <v>-0.04429547320670647</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0004128093382606656</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.00877498227667071</v>
+      </c>
+      <c r="C20">
+        <v>0.06831168284507315</v>
+      </c>
+      <c r="D20">
+        <v>-0.04708441904708475</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005426885023501509</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009784852082884711</v>
+      </c>
+      <c r="C21">
+        <v>0.02313768449705042</v>
+      </c>
+      <c r="D21">
+        <v>-0.03544286758366064</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01812654643111941</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006957197636555968</v>
+      </c>
+      <c r="C22">
+        <v>0.09481781518013772</v>
+      </c>
+      <c r="D22">
+        <v>-0.1005269949159499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01844696628981131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006772121059054556</v>
+      </c>
+      <c r="C23">
+        <v>0.09569806366851531</v>
+      </c>
+      <c r="D23">
+        <v>-0.1008907452809058</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.001736214617522786</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005068276229309341</v>
+      </c>
+      <c r="C24">
+        <v>0.07600445416656396</v>
+      </c>
+      <c r="D24">
+        <v>-0.05756338926919526</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.003522015452466529</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002761121819568425</v>
+      </c>
+      <c r="C25">
+        <v>0.07889782919600193</v>
+      </c>
+      <c r="D25">
+        <v>-0.06409494888843291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.005857496182263684</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003460772016111513</v>
+      </c>
+      <c r="C26">
+        <v>0.04244893026518422</v>
+      </c>
+      <c r="D26">
+        <v>-0.02486761253354491</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.004168129756518078</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.001214784654373563</v>
+      </c>
+      <c r="C28">
+        <v>0.1070546633254977</v>
+      </c>
+      <c r="D28">
+        <v>0.3177561102148092</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.0007957424917311142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.002969657343982009</v>
+      </c>
+      <c r="C29">
+        <v>0.04895760206030889</v>
+      </c>
+      <c r="D29">
+        <v>-0.002959595334896587</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.0028983257742023</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008992453962128789</v>
+      </c>
+      <c r="C30">
+        <v>0.1454692774499994</v>
+      </c>
+      <c r="D30">
+        <v>-0.1001923141402122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0003745135710870588</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006071126372151371</v>
+      </c>
+      <c r="C31">
+        <v>0.04541225488643328</v>
+      </c>
+      <c r="D31">
+        <v>-0.0321840918062675</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0005448589561054347</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003837127557648601</v>
+      </c>
+      <c r="C32">
+        <v>0.04032570080520897</v>
+      </c>
+      <c r="D32">
+        <v>-0.02379687740452124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.002672137958589987</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007959219926580205</v>
+      </c>
+      <c r="C33">
+        <v>0.08718773349437725</v>
+      </c>
+      <c r="D33">
+        <v>-0.07105293847721293</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004235045236040074</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003790567730277562</v>
+      </c>
+      <c r="C34">
+        <v>0.05885886099996493</v>
+      </c>
+      <c r="D34">
+        <v>-0.04814792112439716</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002420160789702237</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004687765612112854</v>
+      </c>
+      <c r="C35">
+        <v>0.03964569704663778</v>
+      </c>
+      <c r="D35">
+        <v>-0.01245264295136908</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.003964242907754059</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001417555271150841</v>
+      </c>
+      <c r="C36">
+        <v>0.02521629075522416</v>
+      </c>
+      <c r="D36">
+        <v>-0.01980788686203649</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.00229179930651785</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009442979285875083</v>
+      </c>
+      <c r="C38">
+        <v>0.03403655203558822</v>
+      </c>
+      <c r="D38">
+        <v>-0.02190337245118075</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01219008844009404</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001041332946583158</v>
+      </c>
+      <c r="C39">
+        <v>0.1176833766021153</v>
+      </c>
+      <c r="D39">
+        <v>-0.07119529292155453</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009389605781711198</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002080586055865123</v>
+      </c>
+      <c r="C40">
+        <v>0.08841408982195723</v>
+      </c>
+      <c r="D40">
+        <v>-0.01364093873457837</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0001844792149709583</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007145892516492493</v>
+      </c>
+      <c r="C41">
+        <v>0.03793378106608919</v>
+      </c>
+      <c r="D41">
+        <v>-0.03516946414791086</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003118072540995187</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003505421082304282</v>
+      </c>
+      <c r="C43">
+        <v>0.0518112205280394</v>
+      </c>
+      <c r="D43">
+        <v>-0.02346771259267122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.002627520006443989</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003089397871777433</v>
+      </c>
+      <c r="C44">
+        <v>0.1130048149277503</v>
+      </c>
+      <c r="D44">
+        <v>-0.06977279948802566</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.001455586166995966</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.0022807971712892</v>
+      </c>
+      <c r="C46">
+        <v>0.03595369527930186</v>
+      </c>
+      <c r="D46">
+        <v>-0.02645657379182829</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0002179880846389837</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002660098413574308</v>
+      </c>
+      <c r="C47">
+        <v>0.03782694957807917</v>
+      </c>
+      <c r="D47">
+        <v>-0.02530386769604041</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003409886195935653</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006333920185027931</v>
+      </c>
+      <c r="C48">
+        <v>0.02949904371101139</v>
+      </c>
+      <c r="D48">
+        <v>-0.03017519951119465</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01324460140780272</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01451772209218099</v>
+      </c>
+      <c r="C49">
+        <v>0.1824671623156461</v>
+      </c>
+      <c r="D49">
+        <v>-0.01184775466209113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001239300683065623</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003509971183613211</v>
+      </c>
+      <c r="C50">
+        <v>0.04409451502696467</v>
+      </c>
+      <c r="D50">
+        <v>-0.03496295363830213</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.0003872573618577786</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004274531829663726</v>
+      </c>
+      <c r="C51">
+        <v>0.02501169826728449</v>
+      </c>
+      <c r="D51">
+        <v>-0.02020553859975089</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.001193833682253194</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02018704128543063</v>
+      </c>
+      <c r="C53">
+        <v>0.1695639962494142</v>
+      </c>
+      <c r="D53">
+        <v>-0.0358958470890263</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001099443905228914</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008631620972922244</v>
+      </c>
+      <c r="C54">
+        <v>0.05649129071466173</v>
+      </c>
+      <c r="D54">
+        <v>-0.0405505938949569</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.003500074895434464</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009250170322189484</v>
+      </c>
+      <c r="C55">
+        <v>0.1106050380667341</v>
+      </c>
+      <c r="D55">
+        <v>-0.04258436079024709</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.003881790294476564</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01968560690573641</v>
+      </c>
+      <c r="C56">
+        <v>0.1768158189101154</v>
+      </c>
+      <c r="D56">
+        <v>-0.03578565545609477</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.006913756362623112</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01923194080571458</v>
+      </c>
+      <c r="C58">
+        <v>0.1086382376402773</v>
+      </c>
+      <c r="D58">
+        <v>-0.05231463829687667</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.006205620758013935</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.008941188870548414</v>
+      </c>
+      <c r="C59">
+        <v>0.1585881914349422</v>
+      </c>
+      <c r="D59">
+        <v>0.3048405274234071</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.003648189474212704</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02316534788987739</v>
+      </c>
+      <c r="C60">
+        <v>0.2237267167447337</v>
+      </c>
+      <c r="D60">
+        <v>-0.02073494061324452</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01424080057768019</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002096741761354101</v>
+      </c>
+      <c r="C61">
+        <v>0.09605175462234267</v>
+      </c>
+      <c r="D61">
+        <v>-0.05563137906782631</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1699782661520022</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.14411722467969</v>
+      </c>
+      <c r="C62">
+        <v>0.08891343539428143</v>
+      </c>
+      <c r="D62">
+        <v>-0.04605837209698271</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0008006652331461739</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006130361110914102</v>
+      </c>
+      <c r="C63">
+        <v>0.05695412923863317</v>
+      </c>
+      <c r="D63">
+        <v>-0.02452524698159752</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.004756531813485319</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01476688543909002</v>
+      </c>
+      <c r="C64">
+        <v>0.1050828144671509</v>
+      </c>
+      <c r="D64">
+        <v>-0.05851720375573941</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.002777737814922587</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01724697493590257</v>
+      </c>
+      <c r="C65">
+        <v>0.1209785499375579</v>
+      </c>
+      <c r="D65">
+        <v>-0.01659022606921377</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.007250155422621186</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01232949098610073</v>
+      </c>
+      <c r="C66">
+        <v>0.1599500591833091</v>
+      </c>
+      <c r="D66">
+        <v>-0.1116879377173267</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.003808257982445023</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01549224841144992</v>
+      </c>
+      <c r="C67">
+        <v>0.06493440913367067</v>
+      </c>
+      <c r="D67">
+        <v>-0.02987155564568269</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.006097851248386362</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0003951722379775357</v>
+      </c>
+      <c r="C68">
+        <v>0.08707561893966262</v>
+      </c>
+      <c r="D68">
+        <v>0.2522806777714522</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.00289526884788868</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005921036987656877</v>
+      </c>
+      <c r="C69">
+        <v>0.05115311476121416</v>
+      </c>
+      <c r="D69">
+        <v>-0.0398497756234323</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-7.70867450781086e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001835352235964506</v>
+      </c>
+      <c r="C70">
+        <v>0.002763914687111654</v>
+      </c>
+      <c r="D70">
+        <v>-0.0008873911534410235</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0002526139344088633</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005578552040720512</v>
+      </c>
+      <c r="C71">
+        <v>0.09719715828494291</v>
+      </c>
+      <c r="D71">
+        <v>0.2992887363029658</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.004534745442803027</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01543279916912415</v>
+      </c>
+      <c r="C72">
+        <v>0.1498777055513467</v>
+      </c>
+      <c r="D72">
+        <v>-0.02332995495788622</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01216022458474317</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02914154374710256</v>
+      </c>
+      <c r="C73">
+        <v>0.2763403564604456</v>
+      </c>
+      <c r="D73">
+        <v>-0.04637937790006334</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.004231123131080108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001350645080181175</v>
+      </c>
+      <c r="C74">
+        <v>0.1052943959159085</v>
+      </c>
+      <c r="D74">
+        <v>-0.03837682874587238</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.00204371570093806</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01065338146378512</v>
+      </c>
+      <c r="C75">
+        <v>0.1310054893188156</v>
+      </c>
+      <c r="D75">
+        <v>-0.02306296275171033</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.009575792844070594</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02121204680106235</v>
+      </c>
+      <c r="C76">
+        <v>0.1511957504618545</v>
+      </c>
+      <c r="D76">
+        <v>-0.06383144247624416</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.001387286079910652</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02400622760432159</v>
+      </c>
+      <c r="C77">
+        <v>0.1333983732180518</v>
+      </c>
+      <c r="D77">
+        <v>-0.05854638099203793</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0008338625253859518</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01423688960916096</v>
+      </c>
+      <c r="C78">
+        <v>0.09586259971705703</v>
+      </c>
+      <c r="D78">
+        <v>-0.06722788479743728</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.024800035032638</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03695066061095555</v>
+      </c>
+      <c r="C79">
+        <v>0.157261336257365</v>
+      </c>
+      <c r="D79">
+        <v>-0.03233374031686014</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.0047829825479848</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01048727887659987</v>
+      </c>
+      <c r="C80">
+        <v>0.04290193055201784</v>
+      </c>
+      <c r="D80">
+        <v>-0.029913980064496</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.001049598948674762</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01466708768273819</v>
+      </c>
+      <c r="C81">
+        <v>0.1285989584123763</v>
+      </c>
+      <c r="D81">
+        <v>-0.04359803085145841</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.005993074325576673</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01955251823328071</v>
+      </c>
+      <c r="C82">
+        <v>0.1456945669526128</v>
+      </c>
+      <c r="D82">
+        <v>-0.04049459821663348</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.00881683197811131</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.00997767575369902</v>
+      </c>
+      <c r="C83">
+        <v>0.05735063998030342</v>
+      </c>
+      <c r="D83">
+        <v>-0.05330464243912354</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01291076045557354</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01164057794061715</v>
+      </c>
+      <c r="C84">
+        <v>0.0384299255755322</v>
+      </c>
+      <c r="D84">
+        <v>0.009224969495224632</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01607629722900415</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02779531390206548</v>
+      </c>
+      <c r="C85">
+        <v>0.1307470499459461</v>
+      </c>
+      <c r="D85">
+        <v>-0.04539256674857476</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.000968830554510704</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005321133243488654</v>
+      </c>
+      <c r="C86">
+        <v>0.04882406424953237</v>
+      </c>
+      <c r="D86">
+        <v>-0.02232268563822067</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.004854880206227987</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01026890699158034</v>
+      </c>
+      <c r="C87">
+        <v>0.1338955604846263</v>
+      </c>
+      <c r="D87">
+        <v>-0.06353531089296419</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01283477877131501</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.003071721665898201</v>
+      </c>
+      <c r="C88">
+        <v>0.06767359523044802</v>
+      </c>
+      <c r="D88">
+        <v>-0.00914033404002384</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01427293294510319</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.002031459672068428</v>
+      </c>
+      <c r="C89">
+        <v>0.1452401336595688</v>
+      </c>
+      <c r="D89">
+        <v>0.3520968787817264</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.002232228614228725</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.00653329359423174</v>
+      </c>
+      <c r="C90">
+        <v>0.1207022442544873</v>
+      </c>
+      <c r="D90">
+        <v>0.3233551778256365</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.001320114594983865</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01018245383864073</v>
+      </c>
+      <c r="C91">
+        <v>0.1030952123983535</v>
+      </c>
+      <c r="D91">
+        <v>-0.023163324344521</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.008234096114965768</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-6.97186301152831e-05</v>
+      </c>
+      <c r="C92">
+        <v>0.1338307568600674</v>
+      </c>
+      <c r="D92">
+        <v>0.3348096108383541</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>2.367988597827822e-05</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.00449259893239397</v>
+      </c>
+      <c r="C93">
+        <v>0.1044437110554752</v>
+      </c>
+      <c r="D93">
+        <v>0.3161941484134071</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.004636909853460632</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02225210236141908</v>
+      </c>
+      <c r="C94">
+        <v>0.1542163752924219</v>
+      </c>
+      <c r="D94">
+        <v>-0.0472523669318089</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.004562303189143854</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01604396784117909</v>
+      </c>
+      <c r="C95">
+        <v>0.1274561566323336</v>
+      </c>
+      <c r="D95">
+        <v>-0.06234922400835635</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.001248454340033765</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.0340051869064921</v>
+      </c>
+      <c r="C97">
+        <v>0.1915509427768193</v>
+      </c>
+      <c r="D97">
+        <v>-0.005766111525777206</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.003632735002452309</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03568931907113099</v>
+      </c>
+      <c r="C98">
+        <v>0.2470965946924492</v>
+      </c>
+      <c r="D98">
+        <v>-0.05136014614755123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9835189412240953</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9827181972284077</v>
+      </c>
+      <c r="C99">
+        <v>-0.1117372841514787</v>
+      </c>
+      <c r="D99">
+        <v>0.02783011980974128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.000747571765374851</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003015069841588469</v>
+      </c>
+      <c r="C101">
+        <v>0.04898655592087919</v>
+      </c>
+      <c r="D101">
+        <v>-0.003440477281119261</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
